--- a/carreiras.xlsx
+++ b/carreiras.xlsx
@@ -5,492 +5,499 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="962" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="157">
-  <si>
-    <t xml:space="preserve">Desenvolvedor Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android,Android Studio,Fragments,Google Maps,GPS,Jogos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Apple Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swift,iOS,Xcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Mobile com Kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvimento-mobile-kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin,Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Mobile Multiplataforma Cordova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-mobile-cordova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML,CSS,JavaScript,Cordova,PhoneGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Mobile Multiplataforma Xamarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-mobile-xamarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Xamarin,Visual Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programador Ionic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/programador-ionic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ionic,Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante em Programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/iniciante-em-logica-de-programacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-java-junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-java-junior-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSP,JSTL,HTTP,HTML,CSS,MySQL,JDBC,SQL,Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web Enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-java-web-enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,EJB,CDI,Primefaces,JPA,Hibernate,REST,WebSockets,HTML,JAAS,JMS,Maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web com Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-java-web-spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Spring MVC,Spring Security,Maven,JPA,Hibernate,Spring Boot,HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expert em Integrações de Aplicações com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/expert-em-integracoes-de-aplicacoes-com-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JAX-RS,Jersey,JAX-WS,JMS,ActiveMQ,Apache Camel,Rest Assured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avançando na Plataforma Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/avancando-plataforma-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Java Reflection,XML,Threads,Eclipse,IntelliJ IDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expert em Orientação a Objetos com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/expert-orientacao-a-objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,SOLID,TDD,Teste de Integração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor ASP.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-aspnet-junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity Framework,HTTP,HTML,CSS,MVC,ASP .NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor .NET Erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-net-erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,SOLID,TDD,C# Reflection,.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor .NET com Entity Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-net-com-entity-framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity Framework,Entity Framework Core,Entity LinQ,SQLServer,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante Back-end PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-php-junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,MySQL,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor PHP Erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-php-erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,SOLID,TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,HTML,CSS,Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Ruby and Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-ruby-rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby,Ruby on Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress,HTML,CSS,PHP,MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java OCJP I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/certificacao-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inteligência Artificial iniciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/inteligencia-artificial-iniciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R,Machine Learning,Estatística,Chatbot,Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor de Jogos com Cocos Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvimento-jogos-cocos-creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de jogos com Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvimento-jogos-unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embarcados e Internet das Coisas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/embarcados-e-iot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino,Robótica,IoT,NodeMcu,MQTT,Amazon Alexa,Amazon IoT,Raspberry Pi,GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Web com Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-web-com-flask-e-python3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Flask,HTTP,HTML,CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento Web com Play Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvimento-web-com-play-framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Play Framework,Maven,JPA,Hibernate,SQL,MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRONTEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTTP,Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenheiro JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/engenheiro-javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Jasmine,Progressive Web Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenheiro Front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/engenheiro-front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Gulp,HTTP,Bootstrap,Sass,Compass,Chrome Dev Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programador Angular 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/programador-angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor FullStack MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/programador-fullstack-mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Node.js,MongoDB,Angular,HTTP,REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programador Angular 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/programador-angular2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programador React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/programador-react</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,React,Webpack,Redux,Arquitetura flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-vuejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Webpack,Vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor TypeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/desenvolvedor-typescript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,TypeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Node.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/node-js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,HTTP,Node.js,MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenheiro Devops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRAESTRUTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/engenheiro-devops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux,Git,Vangrant,Ansible,Docker,Kubernetes,AWS S3,Amazon EC2,Amazon AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Cisco CCNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/certificacao-cisco-ccna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco CCNA,Network Fundamentals,LAN Switching Fundamentals,Routing Fundamentals,Infrastructure Services,Infrastructure Maintence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerShell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/powershell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powershell,Jobs,Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Oracle 12c: Exame 1Z0-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/certificacao-oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infraestrutura de redes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/infraestrutra-de-redes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redes,Ipv6,OWASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciando com SQL e MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/iniciando-com-sql-e-mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL,MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança de aplicações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/seguranca-de-aplicacoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWASP,pfSense,iptables,Firewall,Segurança,XSS,Java,Mass Assigment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle SQL e PL/SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/oracle-pl-sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle,PL/SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação LPI Linux Essentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/certificacao-lpi-linux-essentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet das Coisas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/iot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino,Robótica,IoT,NodeMcu,MQTT,Amazon Alexa,Home Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/career/raspberry-pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi,Python,CPIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+  <si>
+    <t>Desenvolvedor Android</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-android</t>
+  </si>
+  <si>
+    <t>Android,Android Studio,Fragments,Google Maps,GPS,Jogos</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Apple Mobile iOS</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-ios</t>
+  </si>
+  <si>
+    <t>Swift,iOS,Xcode</t>
+  </si>
+  <si>
+    <t>Desenvolvimento mobile com Kotlin</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvimento-mobile-kotlin</t>
+  </si>
+  <si>
+    <t>Kotlin,Android</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Mobile Multiplataforma Cordova</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-mobile-cordova</t>
+  </si>
+  <si>
+    <t>HTML,CSS,JavaScript,Cordova,PhoneGap</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Mobile Multiplataforma Xamarin</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-mobile-xamarin</t>
+  </si>
+  <si>
+    <t>C#,Xamarin,Visual Studio</t>
+  </si>
+  <si>
+    <t>Programador Ionic</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/programador-ionic</t>
+  </si>
+  <si>
+    <t>Ionic,Angular</t>
+  </si>
+  <si>
+    <t>Iniciante em Programação</t>
+  </si>
+  <si>
+    <t>PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/iniciante-em-logica-de-programacao</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-java-junior</t>
+  </si>
+  <si>
+    <t>Java,Eclipse</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-java-junior-web</t>
+  </si>
+  <si>
+    <t>Java,JSP,JSTL,HTTP,HTML,CSS,MySQL,JDBC,SQL,Git</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web Enterprise</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-java-web-enterprise</t>
+  </si>
+  <si>
+    <t>Java,JSF,EJB,CDI,Primefaces,JPA,Hibernate,REST,WebSockets,HTML,JAAS,JMS,Maven</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web com Spring</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-java-web-spring</t>
+  </si>
+  <si>
+    <t>Java,Spring MVC,Spring Security,Maven,JPA,Hibernate,Spring Boot,HTML</t>
+  </si>
+  <si>
+    <t>Expert em Integrações de Aplicações com Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/expert-em-integracoes-de-aplicacoes-com-java</t>
+  </si>
+  <si>
+    <t>Java,JAX-RS,Jersey,JAX-WS,JMS,ActiveMQ,Apache Camel,Rest Assured</t>
+  </si>
+  <si>
+    <t>Avançando na Plataforma Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/avancando-plataforma-java</t>
+  </si>
+  <si>
+    <t>Java,Java Reflection,XML,Threads,Eclipse,IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>Expert em Orientação a Objetos com Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/expert-orientacao-a-objetos</t>
+  </si>
+  <si>
+    <t>Java,SOLID,TDD,Teste de Integração</t>
+  </si>
+  <si>
+    <t>Desenvolvedor ASP.NET</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-aspnet-junior</t>
+  </si>
+  <si>
+    <t>C#,Entity Framework,HTTP,HTML,CSS,MVC,ASP .NET</t>
+  </si>
+  <si>
+    <t>Desenvolvedor .NET Erudito</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-net-erudito</t>
+  </si>
+  <si>
+    <t>C#,SOLID,TDD,C# Reflection,.NET</t>
+  </si>
+  <si>
+    <t>Desenvolvedor .NET com Entity Framework</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-net-com-entity-framework</t>
+  </si>
+  <si>
+    <t>C#,Entity Framework,Entity Framework Core,Entity LinQ,SQLServer,SQL</t>
+  </si>
+  <si>
+    <t>Iniciante Back-end PHP</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-php-junior</t>
+  </si>
+  <si>
+    <t>PHP,MySQL,HTTP</t>
+  </si>
+  <si>
+    <t>Desenvolvedor PHP Erudito</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-php-erudito</t>
+  </si>
+  <si>
+    <t>PHP,SOLID,TDD</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Python</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-python</t>
+  </si>
+  <si>
+    <t>Python,HTML,CSS,Django</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Ruby on Rails</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-ruby-rails</t>
+  </si>
+  <si>
+    <t>Ruby,Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Wordpress</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-wordpress</t>
+  </si>
+  <si>
+    <t>Wordpress,HTML,CSS,PHP,MySQL</t>
+  </si>
+  <si>
+    <t>Certificação Java OCJP I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/certificacao-java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>inteligência Artificial iniciante</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/inteligencia-artificial-iniciante</t>
+  </si>
+  <si>
+    <t>R,Machine Learning,Estatística,Chatbot,Python</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de jogos com Cocos Creator</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvimento-jogos-cocos-creator</t>
+  </si>
+  <si>
+    <t>Cocos Creator</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de jogos com Unity</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvimento-jogos-unity</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Embarcados e Internet das Coisas</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/embarcados-e-iot</t>
+  </si>
+  <si>
+    <t>Arduino,Robótica,IoT,NodeMcu,MQTT,Amazon Alexa,Amazon IoT,Raspberry Pi,GPIO</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Web com Flask</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-web-com-flask-e-python3</t>
+  </si>
+  <si>
+    <t>Python,Flask,HTTP,HTML,CSS</t>
+  </si>
+  <si>
+    <t>Desenvolvimento web com Play! Framework</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvimento-web-com-play-framework</t>
+  </si>
+  <si>
+    <t>Java,Play Framework,Maven,JPA,Hibernate,SQL,MySQL</t>
+  </si>
+  <si>
+    <t>Desenvolvedor JavaScript</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-javascript</t>
+  </si>
+  <si>
+    <t>JavaScript,HTTP,Jquery</t>
+  </si>
+  <si>
+    <t>Engenheiro JavaScript</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/engenheiro-javascript</t>
+  </si>
+  <si>
+    <t>JavaScript,Jasmine,Progressive Web Apps</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front-end</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-front-end</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Jquery</t>
+  </si>
+  <si>
+    <t>Engenheiro Front-end</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/engenheiro-front-end</t>
+  </si>
+  <si>
+    <t>JavaScript,Gulp,HTTP,Bootstrap,Sass,Compass,Chrome Dev Tools</t>
+  </si>
+  <si>
+    <t>Programador Angular 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/programador-angular</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Angular</t>
+  </si>
+  <si>
+    <t>Desenvolvedor FullStack MEAN</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/programador-fullstack-mean</t>
+  </si>
+  <si>
+    <t>JavaScript,Node.js,MongoDB,Angular,HTTP,REST</t>
+  </si>
+  <si>
+    <t>Programador Angular 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/programador-angular2</t>
+  </si>
+  <si>
+    <t>JavaScript,Angular</t>
+  </si>
+  <si>
+    <t>Programador React</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/programador-react</t>
+  </si>
+  <si>
+    <t>JavaScript,React,Webpack,Redux,Arquitetura flux</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Vue.js</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-vuejs</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Webpack,Vue.js</t>
+  </si>
+  <si>
+    <t>Desenvolvedor TypeScript</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/desenvolvedor-typescript</t>
+  </si>
+  <si>
+    <t>JavaScript,TypeScript</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Node.js</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/node-js</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,HTTP,Node.js,MongoDB</t>
+  </si>
+  <si>
+    <t>Engenheiro Devops</t>
+  </si>
+  <si>
+    <t>INFRAESTRUTURA</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/engenheiro-devops</t>
+  </si>
+  <si>
+    <t>Linux,Git,Vangrant,Ansible,Docker,Kubernetes,AWS S3,Amazon EC2,Amazon AWS</t>
+  </si>
+  <si>
+    <t>Certificação Cisco CCNA</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/certificacao-cisco-ccna</t>
+  </si>
+  <si>
+    <t>Cisco CCNA,Network Fundamentals,LAN Switching Fundamentals,Routing Fundamentals,Infrastructure Services,Infrastructure Maintence</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/powershell</t>
+  </si>
+  <si>
+    <t>Powershell,Jobs,Script</t>
+  </si>
+  <si>
+    <t>Certificação Oracle 12c: Exame 1Z0-061</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/certificacao-oracle</t>
+  </si>
+  <si>
+    <t>Oracle,SQL</t>
+  </si>
+  <si>
+    <t>Infraestrutura de redes</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/infraestrutra-de-redes</t>
+  </si>
+  <si>
+    <t>Redes,Ipv6,OWASP</t>
+  </si>
+  <si>
+    <t>Iniciando com SQL e MySQL</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/iniciando-com-sql-e-mysql</t>
+  </si>
+  <si>
+    <t>SQL,MySQL</t>
+  </si>
+  <si>
+    <t>Segurança de aplicações</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/seguranca-de-aplicacoes</t>
+  </si>
+  <si>
+    <t>OWASP,pfSense,iptables,Firewall,Segurança,XSS,Java,Mass Assigment</t>
+  </si>
+  <si>
+    <t>Oracle SQL e PL/SQL</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/oracle-pl-sql</t>
+  </si>
+  <si>
+    <t>Oracle,PL/SQL</t>
+  </si>
+  <si>
+    <t>Certificação LPI Linux Essentials</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/certificacao-lpi-linux-essentials</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Internet das Coisas</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/iot</t>
+  </si>
+  <si>
+    <t>Arduino,Robótica,IoT,NodeMcu,MQTT,Amazon Alexa,Home Assistant</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/raspberry-pi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi,Python,CPIO</t>
+  </si>
+  <si>
+    <t>SEO Expert</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/career/seo-expert</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
   </si>
 </sst>
 </file>
@@ -498,7 +505,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -591,10 +598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1320,6 +1327,20 @@
         <v>156</v>
       </c>
     </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/carreiras.xlsx
+++ b/carreiras.xlsx
@@ -227,7 +227,7 @@
     <t>https://cursos.alura.com.br/career/certificacao-java</t>
   </si>
   <si>
-    <t>Java</t>
+    <t>Java,Certificação</t>
   </si>
   <si>
     <t>inteligência Artificial iniciante</t>
@@ -601,7 +601,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
